--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,11 +749,11 @@
         <v>3.7469473879791968</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA1:AA29" si="0">AVERAGE((B2-E2),(G2-J2),(L2-O2),(Q2-T2),(V2-Y2))/(_xlfn.STDEV.P((B2-E2),(G2-J2),(L2-O2),(Q2-T2),(V2-Y2))/SQRT(4))</f>
+        <f t="shared" ref="AA2:AA27" si="0">AVERAGE((B2-E2),(G2-J2),(L2-O2),(Q2-T2),(V2-Y2))/(_xlfn.STDEV.P((B2-E2),(G2-J2),(L2-O2),(Q2-T2),(V2-Y2))/SQRT(4))</f>
         <v>16</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB1:AB15" si="1">AVERAGE((B2-D2),(G2-I2),(L2-N2),(Q2-S2),(V2-X2))/(_xlfn.STDEV.P((B2-D2),(G2-I2),(L2-N2),(Q2-S2),(V2-X2))/SQRT(4))</f>
+        <f t="shared" ref="AB2:AB15" si="1">AVERAGE((B2-D2),(G2-I2),(L2-N2),(Q2-S2),(V2-X2))/(_xlfn.STDEV.P((B2-D2),(G2-I2),(L2-N2),(Q2-S2),(V2-X2))/SQRT(4))</f>
         <v>11</v>
       </c>
       <c r="AC2">
@@ -773,27 +773,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG2" t="b">
-        <f>AND((AA2&lt;=-_xlfn.T.INV(0.01, 4)),(AA2&gt;=_xlfn.T.INV(0.01, 4)))</f>
-        <v>0</v>
+        <f t="shared" ref="AG2:AG64" si="2">NOT(AND((AA2&lt;=-_xlfn.T.INV(0.01, 4)),(AA2&gt;=_xlfn.T.INV(0.01, 4))))</f>
+        <v>1</v>
       </c>
       <c r="AH2" t="b">
-        <f>AND((AB2&lt;=-_xlfn.T.INV(0.01, 4)),(AB2&gt;=_xlfn.T.INV(0.01, 4)))</f>
-        <v>0</v>
+        <f t="shared" ref="AH2:AH65" si="3">NOT(AND((AB2&lt;=-_xlfn.T.INV(0.01, 4)),(AB2&gt;=_xlfn.T.INV(0.01, 4))))</f>
+        <v>1</v>
       </c>
       <c r="AI2" t="b">
-        <f t="shared" ref="AI2:AL17" si="2">AND((AC2&lt;=-_xlfn.T.INV(0.01, 4)),(AC2&gt;=_xlfn.T.INV(0.01, 4)))</f>
-        <v>0</v>
+        <f t="shared" ref="AI2:AI65" si="4">NOT(AND((AC2&lt;=-_xlfn.T.INV(0.01, 4)),(AC2&gt;=_xlfn.T.INV(0.01, 4))))</f>
+        <v>1</v>
       </c>
       <c r="AJ2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AJ2:AJ65" si="5">NOT(AND((AD2&lt;=-_xlfn.T.INV(0.01, 4)),(AD2&gt;=_xlfn.T.INV(0.01, 4))))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AK2:AK65" si="6">NOT(AND((AE2&lt;=-_xlfn.T.INV(0.01, 4)),(AE2&gt;=_xlfn.T.INV(0.01, 4))))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AL2:AL65" si="7">NOT(AND((AF2&lt;=-_xlfn.T.INV(0.01, 4)),(AF2&gt;=_xlfn.T.INV(0.01, 4))))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -882,44 +882,44 @@
         <v>91.403344734049156</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC65" si="3">AVERAGE((B3-C3),(G3-H3),(L3-M3),(Q3-R3),(V3-W3))/(_xlfn.STDEV.P((B3-C3),(G3-H3),(L3-M3),(Q3-R3),(V3-W3))/SQRT(4))</f>
+        <f t="shared" ref="AC3:AC65" si="8">AVERAGE((B3-C3),(G3-H3),(L3-M3),(Q3-R3),(V3-W3))/(_xlfn.STDEV.P((B3-C3),(G3-H3),(L3-M3),(Q3-R3),(V3-W3))/SQRT(4))</f>
         <v>50.596442562694065</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD65" si="4">AVERAGE((D3-C3),(I3-H3),(N3-M3),(S3-R3),(X3-W3))/(_xlfn.STDEV.P((D3-C3),(I3-H3),(N3-M3),(S3-R3),(X3-W3))/SQRT(4))</f>
+        <f t="shared" ref="AD3:AD65" si="9">AVERAGE((D3-C3),(I3-H3),(N3-M3),(S3-R3),(X3-W3))/(_xlfn.STDEV.P((D3-C3),(I3-H3),(N3-M3),(S3-R3),(X3-W3))/SQRT(4))</f>
         <v>-91</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE65" si="5">AVERAGE((E3-C3),(J3-H3),(O3-M3),(T3-R3),(Y3-W3))/(_xlfn.STDEV.P((E3-C3),(J3-H3),(O3-M3),(T3-R3),(Y3-W3))/SQRT(4))</f>
+        <f t="shared" ref="AE3:AE65" si="10">AVERAGE((E3-C3),(J3-H3),(O3-M3),(T3-R3),(Y3-W3))/(_xlfn.STDEV.P((E3-C3),(J3-H3),(O3-M3),(T3-R3),(Y3-W3))/SQRT(4))</f>
         <v>-9</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF65" si="6">AVERAGE((E3-D3),(J3-I3),(O3-N3),(T3-S3),(Y3-X3))/(_xlfn.STDEV.P((E3-D3),(J3-I3),(O3-N3),(T3-S3),(Y3-X3))/SQRT(4))</f>
+        <f t="shared" ref="AF3:AF65" si="11">AVERAGE((E3-D3),(J3-I3),(O3-N3),(T3-S3),(Y3-X3))/(_xlfn.STDEV.P((E3-D3),(J3-I3),(O3-N3),(T3-S3),(Y3-X3))/SQRT(4))</f>
         <v>14.200938936093861</v>
       </c>
       <c r="AG3" t="b">
-        <f t="shared" ref="AG3:AG65" si="7">AND((AA3&lt;=-_xlfn.T.INV(0.01, 4)),(AA3&gt;=_xlfn.T.INV(0.01, 4)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AH3" t="b">
-        <f t="shared" ref="AH3:AL64" si="8">AND((AB3&lt;=-_xlfn.T.INV(0.01, 4)),(AB3&gt;=_xlfn.T.INV(0.01, 4)))</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AJ3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="AK3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="AL3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -1007,44 +1007,44 @@
         <v>19.538229975963077</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-12.467424655389014</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-54.393823642175533</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.412383707975245</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>83.938042023415591</v>
       </c>
       <c r="AG4" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AH4" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AH4" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AJ4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="AK4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="AL4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1209,43 +1209,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AC6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF6" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH6" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" t="e">
+      <c r="AI6" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" t="e">
+      <c r="AJ6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF6" t="e">
+      <c r="AK6" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG6" t="e">
+      <c r="AL6" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH6" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL6" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1334,44 +1334,44 @@
         <v>-124.00000000000001</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-5.715476066494082</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.530099968543951</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.58277151741435851</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-28.685486624025447</v>
       </c>
       <c r="AG7" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AH7" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AH7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AJ7" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AK7" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK7" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="AL7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1459,44 +1459,44 @@
         <v>-10.497407147165333</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="8"/>
+        <v>-7.4505846471458508</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="9"/>
+        <v>16.443684126148302</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="10"/>
+        <v>0.24065063626587382</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="11"/>
+        <v>-7.1036873651068779</v>
+      </c>
+      <c r="AG8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
         <f t="shared" si="3"/>
-        <v>-7.4505846471458508</v>
-      </c>
-      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
         <f t="shared" si="4"/>
-        <v>16.443684126148302</v>
-      </c>
-      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="b">
         <f t="shared" si="5"/>
-        <v>0.24065063626587382</v>
-      </c>
-      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
         <f t="shared" si="6"/>
-        <v>-7.1036873651068779</v>
-      </c>
-      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AL8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1661,43 +1661,43 @@
         <v>-9</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AD10" t="e">
+      <c r="AI10" t="b">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" t="e">
+      <c r="AK10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" t="b">
+      <c r="AL10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL10" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1786,44 +1786,44 @@
         <v>-114</v>
       </c>
       <c r="AC11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="10"/>
+        <v>8.5732140997411239</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="11"/>
+        <v>-36.47760113570223</v>
+      </c>
+      <c r="AG11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="e">
         <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="AE11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" t="b">
         <f t="shared" si="5"/>
-        <v>8.5732140997411239</v>
-      </c>
-      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="b">
         <f t="shared" si="6"/>
-        <v>-36.47760113570223</v>
-      </c>
-      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1911,44 +1911,44 @@
         <v>-10.068301691585752</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="8"/>
+        <v>-5.8509230366927634</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="9"/>
+        <v>20.011412770061664</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="10"/>
+        <v>1.3173828433780856</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="11"/>
+        <v>-5.3150961684546099</v>
+      </c>
+      <c r="AG12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
         <f t="shared" si="3"/>
-        <v>-5.8509230366927634</v>
-      </c>
-      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="b">
         <f t="shared" si="4"/>
-        <v>20.011412770061664</v>
-      </c>
-      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="b">
         <f t="shared" si="5"/>
-        <v>1.3173828433780856</v>
-      </c>
-      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="b">
         <f t="shared" si="6"/>
-        <v>-5.3150961684546099</v>
-      </c>
-      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AL12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2113,44 +2113,44 @@
         <v>-499.48234493646112</v>
       </c>
       <c r="AC15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="9"/>
+        <v>501.72741121179581</v>
+      </c>
+      <c r="AE15" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="11"/>
+        <v>-501.72741121179581</v>
+      </c>
+      <c r="AG15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH15" t="b">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="e">
         <f t="shared" si="4"/>
-        <v>501.72741121179581</v>
-      </c>
-      <c r="AE15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ15" t="b">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="e">
         <f t="shared" si="6"/>
-        <v>-501.72741121179581</v>
-      </c>
-      <c r="AG15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL15" t="b">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2238,44 +2238,44 @@
         <v>-73.892545089682898</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="8"/>
+        <v>43.474130238568314</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="9"/>
+        <v>73.888869509749028</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="10"/>
+        <v>-5.2623481158421752</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="11"/>
+        <v>-73.925606189934328</v>
+      </c>
+      <c r="AG16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
         <f t="shared" si="3"/>
-        <v>43.474130238568314</v>
-      </c>
-      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="b">
         <f t="shared" si="4"/>
-        <v>73.888869509749028</v>
-      </c>
-      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="b">
         <f t="shared" si="5"/>
-        <v>-5.2623481158421752</v>
-      </c>
-      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="b">
         <f t="shared" si="6"/>
-        <v>-73.925606189934328</v>
-      </c>
-      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -2359,48 +2359,48 @@
         <v>39.341263334970762</v>
       </c>
       <c r="AB17">
-        <f t="shared" ref="AB17:AB65" si="9">AVERAGE((B17-D17),(G17-I17),(L17-N17),(Q17-S17),(V17-X17))/(_xlfn.STDEV.P((B17-D17),(G17-I17),(L17-N17),(Q17-S17),(V17-X17))/SQRT(4))</f>
+        <f t="shared" ref="AB17:AB65" si="12">AVERAGE((B17-D17),(G17-I17),(L17-N17),(Q17-S17),(V17-X17))/(_xlfn.STDEV.P((B17-D17),(G17-I17),(L17-N17),(Q17-S17),(V17-X17))/SQRT(4))</f>
         <v>49.213954227149003</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="8"/>
+        <v>46.938311687131225</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="9"/>
+        <v>-35.469034750067642</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="10"/>
+        <v>-13.424869035913934</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="11"/>
+        <v>36.993642032482057</v>
+      </c>
+      <c r="AG17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
         <f t="shared" si="3"/>
-        <v>46.938311687131225</v>
-      </c>
-      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="b">
         <f t="shared" si="4"/>
-        <v>-35.469034750067642</v>
-      </c>
-      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="b">
         <f t="shared" si="5"/>
-        <v>-13.424869035913934</v>
-      </c>
-      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="b">
         <f t="shared" si="6"/>
-        <v>36.993642032482057</v>
-      </c>
-      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK17" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -2561,47 +2561,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB20" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="8"/>
+        <v>44.000000000000007</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC20">
+        <v>4</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AF20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH20" t="e">
         <f t="shared" si="3"/>
-        <v>44.000000000000007</v>
-      </c>
-      <c r="AD20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI20" t="b">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="b">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AF20" t="e">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="b">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH20" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI20" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK20" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AL20" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2686,48 +2686,48 @@
         <v>14.75</v>
       </c>
       <c r="AB21">
+        <f t="shared" si="12"/>
+        <v>4.6948553403344242</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="8"/>
+        <v>13.5</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="9"/>
-        <v>4.6948553403344242</v>
-      </c>
-      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="11"/>
+        <v>-1.625</v>
+      </c>
+      <c r="AG21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
         <f t="shared" si="3"/>
-        <v>13.5</v>
-      </c>
-      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AE21" t="e">
+      <c r="AJ21" t="b">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="e">
         <f t="shared" si="6"/>
-        <v>-1.625</v>
-      </c>
-      <c r="AG21" t="b">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL21" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="AH21" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AK21" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL21" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -2811,48 +2811,48 @@
         <v>55.521767503085364</v>
       </c>
       <c r="AB22">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="8"/>
+        <v>51.439284598446733</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AC22">
+        <v>4.3216626056146117</v>
+      </c>
+      <c r="AE22" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="11"/>
+        <v>-4.8241815132442181</v>
+      </c>
+      <c r="AG22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
         <f t="shared" si="3"/>
-        <v>51.439284598446733</v>
-      </c>
-      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="b">
         <f t="shared" si="4"/>
-        <v>4.3216626056146117</v>
-      </c>
-      <c r="AE22" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="b">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="e">
         <f t="shared" si="6"/>
-        <v>-4.8241815132442181</v>
-      </c>
-      <c r="AG22" t="b">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL22" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AI22" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL22" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -3013,48 +3013,48 @@
         <v>41.109609582188931</v>
       </c>
       <c r="AB25">
+        <f t="shared" si="12"/>
+        <v>29.933259094191531</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="8"/>
+        <v>51.43928459844674</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="9"/>
-        <v>29.933259094191531</v>
-      </c>
-      <c r="AC25">
+        <v>5.715476066494082</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="10"/>
+        <v>-1.6329931618554523</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+      <c r="AG25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
         <f t="shared" si="3"/>
-        <v>51.43928459844674</v>
-      </c>
-      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="b">
         <f t="shared" si="4"/>
-        <v>5.715476066494082</v>
-      </c>
-      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="b">
         <f t="shared" si="5"/>
-        <v>-1.6329931618554523</v>
-      </c>
-      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="b">
         <f t="shared" si="6"/>
-        <v>-9</v>
-      </c>
-      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK25" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AL25" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:38">
@@ -3138,47 +3138,47 @@
         <v>63.686733312362627</v>
       </c>
       <c r="AB26">
+        <f t="shared" si="12"/>
+        <v>55.521767503085364</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="8"/>
+        <v>74.000000000000014</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="9"/>
-        <v>55.521767503085364</v>
-      </c>
-      <c r="AC26">
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="AF26" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
         <f t="shared" si="3"/>
-        <v>74.000000000000014</v>
-      </c>
-      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="b">
         <f t="shared" si="4"/>
-        <v>5.9999999999999991</v>
-      </c>
-      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="b">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="AF26" t="e">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="b">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI26" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK26" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL26" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3263,48 +3263,48 @@
         <v>56.920997883030829</v>
       </c>
       <c r="AB27">
+        <f t="shared" si="12"/>
+        <v>14.298541039632994</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="8"/>
+        <v>18.832117476498723</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="9"/>
-        <v>14.298541039632994</v>
-      </c>
-      <c r="AC27">
+        <v>1.3719886811400706</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="10"/>
+        <v>-2.25</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="11"/>
+        <v>-2.5253432421288871</v>
+      </c>
+      <c r="AG27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
         <f t="shared" si="3"/>
-        <v>18.832117476498723</v>
-      </c>
-      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="b">
         <f t="shared" si="4"/>
-        <v>1.3719886811400706</v>
-      </c>
-      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="b">
         <f t="shared" si="5"/>
-        <v>-2.25</v>
-      </c>
-      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="b">
         <f t="shared" si="6"/>
-        <v>-2.5253432421288871</v>
-      </c>
-      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI27" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AK27" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AL27" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -3465,47 +3465,47 @@
         <v>263.1588073074916</v>
       </c>
       <c r="AB30">
+        <f t="shared" si="12"/>
+        <v>262.38843609172028</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="8"/>
+        <v>262.38843609172028</v>
+      </c>
+      <c r="AD30" t="e">
         <f t="shared" si="9"/>
-        <v>262.38843609172028</v>
-      </c>
-      <c r="AC30">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
         <f t="shared" si="3"/>
-        <v>262.38843609172028</v>
-      </c>
-      <c r="AD30" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="b">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE30" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF30" t="e">
+      <c r="AK30" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG30" t="b">
+      <c r="AL30" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL30" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3586,52 +3586,52 @@
         <v>34</v>
       </c>
       <c r="AA31">
-        <f t="shared" ref="AA31:AA65" si="10">AVERAGE((B31-E31),(G31-J31),(L31-O31),(Q31-T31),(V31-Y31))/(_xlfn.STDEV.P((B31-E31),(G31-J31),(L31-O31),(Q31-T31),(V31-Y31))/SQRT(4))</f>
+        <f t="shared" ref="AA31:AA65" si="13">AVERAGE((B31-E31),(G31-J31),(L31-O31),(Q31-T31),(V31-Y31))/(_xlfn.STDEV.P((B31-E31),(G31-J31),(L31-O31),(Q31-T31),(V31-Y31))/SQRT(4))</f>
         <v>126.55285890260657</v>
       </c>
       <c r="AB31">
+        <f t="shared" si="12"/>
+        <v>127.06855424309644</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="8"/>
+        <v>127.39310780320129</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="9"/>
-        <v>127.06855424309644</v>
-      </c>
-      <c r="AC31">
+        <v>-8.8648200215010249</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="10"/>
+        <v>4.6701446249430449E-2</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="11"/>
+        <v>4.1975723543655246</v>
+      </c>
+      <c r="AG31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
         <f t="shared" si="3"/>
-        <v>127.39310780320129</v>
-      </c>
-      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="b">
         <f t="shared" si="4"/>
-        <v>-8.8648200215010249</v>
-      </c>
-      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="b">
         <f t="shared" si="5"/>
-        <v>4.6701446249430449E-2</v>
-      </c>
-      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="b">
         <f t="shared" si="6"/>
-        <v>4.1975723543655246</v>
-      </c>
-      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK31" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AL31" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:38">
@@ -3711,52 +3711,52 @@
         <v>616</v>
       </c>
       <c r="AA32">
+        <f t="shared" si="13"/>
+        <v>-73.542249903179922</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="12"/>
+        <v>-165.41699310891673</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="8"/>
+        <v>-36.211271516056684</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="9"/>
+        <v>-29.542355074723094</v>
+      </c>
+      <c r="AE32">
         <f t="shared" si="10"/>
-        <v>-73.542249903179922</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="9"/>
-        <v>-165.41699310891673</v>
-      </c>
-      <c r="AC32">
+        <v>-19.658016499681846</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="11"/>
+        <v>54.894947037388235</v>
+      </c>
+      <c r="AG32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
         <f t="shared" si="3"/>
-        <v>-36.211271516056684</v>
-      </c>
-      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="b">
         <f t="shared" si="4"/>
-        <v>-29.542355074723094</v>
-      </c>
-      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="b">
         <f t="shared" si="5"/>
-        <v>-19.658016499681846</v>
-      </c>
-      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="b">
         <f t="shared" si="6"/>
-        <v>54.894947037388235</v>
-      </c>
-      <c r="AG32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK32" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL32" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:38">
@@ -3913,52 +3913,52 @@
         <v>2</v>
       </c>
       <c r="AA34">
+        <f t="shared" si="13"/>
+        <v>543.3247322788485</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="12"/>
+        <v>529.33040876936218</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="8"/>
+        <v>530.62863573658592</v>
+      </c>
+      <c r="AD34" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE34">
         <f t="shared" si="10"/>
-        <v>543.3247322788485</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="9"/>
-        <v>529.33040876936218</v>
-      </c>
-      <c r="AC34">
+        <v>-4</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="11"/>
+        <v>-18.999999999999996</v>
+      </c>
+      <c r="AG34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
         <f t="shared" si="3"/>
-        <v>530.62863573658592</v>
-      </c>
-      <c r="AD34" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="b">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="e">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="AF34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK34" t="b">
         <f t="shared" si="6"/>
-        <v>-18.999999999999996</v>
-      </c>
-      <c r="AG34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK34" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL34" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -4038,52 +4038,52 @@
         <v>34</v>
       </c>
       <c r="AA35">
+        <f t="shared" si="13"/>
+        <v>266.95317549534485</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="12"/>
+        <v>266.46115758714336</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="8"/>
+        <v>266.64459859229896</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="9"/>
+        <v>69.000000000000014</v>
+      </c>
+      <c r="AE35">
         <f t="shared" si="10"/>
-        <v>266.95317549534485</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="9"/>
-        <v>266.46115758714336</v>
-      </c>
-      <c r="AC35">
+        <v>3.8738776963743335</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="11"/>
+        <v>-5.1908148225072113</v>
+      </c>
+      <c r="AG35" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH35" t="b">
         <f t="shared" si="3"/>
-        <v>266.64459859229896</v>
-      </c>
-      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="b">
         <f t="shared" si="4"/>
-        <v>69.000000000000014</v>
-      </c>
-      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="b">
         <f t="shared" si="5"/>
-        <v>3.8738776963743335</v>
-      </c>
-      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="b">
         <f t="shared" si="6"/>
-        <v>-5.1908148225072113</v>
-      </c>
-      <c r="AG35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK35" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL35" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -4163,52 +4163,52 @@
         <v>387</v>
       </c>
       <c r="AA36">
+        <f t="shared" si="13"/>
+        <v>-40.023676651187778</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="12"/>
+        <v>-70.721279062543047</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="8"/>
+        <v>-33.178264444279655</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="9"/>
+        <v>27.835645022641323</v>
+      </c>
+      <c r="AE36">
         <f t="shared" si="10"/>
-        <v>-40.023676651187778</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="9"/>
-        <v>-70.721279062543047</v>
-      </c>
-      <c r="AC36">
+        <v>-13.762863330763219</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="11"/>
+        <v>-69.433961045491344</v>
+      </c>
+      <c r="AG36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
         <f t="shared" si="3"/>
-        <v>-33.178264444279655</v>
-      </c>
-      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="b">
         <f t="shared" si="4"/>
-        <v>27.835645022641323</v>
-      </c>
-      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="b">
         <f t="shared" si="5"/>
-        <v>-13.762863330763219</v>
-      </c>
-      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="b">
         <f t="shared" si="6"/>
-        <v>-69.433961045491344</v>
-      </c>
-      <c r="AG36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI36" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL36" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:38">
@@ -4365,52 +4365,52 @@
         <v>1</v>
       </c>
       <c r="AA38">
+        <f t="shared" si="13"/>
+        <v>21.514114968019086</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="12"/>
+        <v>20.426090315156102</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="8"/>
+        <v>21.646773003312841</v>
+      </c>
+      <c r="AD38" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE38">
         <f t="shared" si="10"/>
-        <v>21.514114968019086</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="9"/>
-        <v>20.426090315156102</v>
-      </c>
-      <c r="AC38">
+        <v>-4</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="11"/>
+        <v>-18.999999999999996</v>
+      </c>
+      <c r="AG38" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
         <f t="shared" si="3"/>
-        <v>21.646773003312841</v>
-      </c>
-      <c r="AD38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="b">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="e">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="AF38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK38" t="b">
         <f t="shared" si="6"/>
-        <v>-18.999999999999996</v>
-      </c>
-      <c r="AG38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI38" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK38" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL38" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:38">
@@ -4490,52 +4490,52 @@
         <v>39</v>
       </c>
       <c r="AA39">
+        <f t="shared" si="13"/>
+        <v>28.216372623072033</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="12"/>
+        <v>28.228300593101466</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="8"/>
+        <v>28.322660807469617</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="9"/>
+        <v>134.00000000000003</v>
+      </c>
+      <c r="AE39">
         <f t="shared" si="10"/>
-        <v>28.216372623072033</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="9"/>
-        <v>28.228300593101466</v>
-      </c>
-      <c r="AC39">
+        <v>4.4159899363549728</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="11"/>
+        <v>-3.9924627783042106</v>
+      </c>
+      <c r="AG39" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
         <f t="shared" si="3"/>
-        <v>28.322660807469617</v>
-      </c>
-      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="b">
         <f t="shared" si="4"/>
-        <v>134.00000000000003</v>
-      </c>
-      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="b">
         <f t="shared" si="5"/>
-        <v>4.4159899363549728</v>
-      </c>
-      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="b">
         <f t="shared" si="6"/>
-        <v>-3.9924627783042106</v>
-      </c>
-      <c r="AG39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK39" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL39" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:38">
@@ -4615,52 +4615,52 @@
         <v>372</v>
       </c>
       <c r="AA40">
+        <f t="shared" si="13"/>
+        <v>164.97957763306735</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="12"/>
+        <v>164.88940127971674</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="8"/>
+        <v>164.90092984345841</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="9"/>
+        <v>40.047841867859063</v>
+      </c>
+      <c r="AE40">
         <f t="shared" si="10"/>
-        <v>164.97957763306735</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="9"/>
-        <v>164.88940127971674</v>
-      </c>
-      <c r="AC40">
+        <v>-6.1306432006668539</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="11"/>
+        <v>-30.030145066124593</v>
+      </c>
+      <c r="AG40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH40" t="b">
         <f t="shared" si="3"/>
-        <v>164.90092984345841</v>
-      </c>
-      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="b">
         <f t="shared" si="4"/>
-        <v>40.047841867859063</v>
-      </c>
-      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="b">
         <f t="shared" si="5"/>
-        <v>-6.1306432006668539</v>
-      </c>
-      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="b">
         <f t="shared" si="6"/>
-        <v>-30.030145066124593</v>
-      </c>
-      <c r="AG40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI40" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK40" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL40" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:38">
@@ -4817,52 +4817,52 @@
         <v>1</v>
       </c>
       <c r="AA43" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="AD43" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE43">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="AC43">
+        <v>-1</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AG43" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH43" t="b">
         <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="AD43" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI43" t="b">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AJ43" t="e">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AF43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK43" t="b">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AG43" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="b">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH43" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK43" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AL43" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:38">
@@ -4942,52 +4942,52 @@
         <v>9</v>
       </c>
       <c r="AA44">
+        <f t="shared" si="13"/>
+        <v>466.75319858260929</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="12"/>
+        <v>657.51909490865091</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="8"/>
+        <v>405.92327317327306</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="9"/>
+        <v>-7.0868493170453961</v>
+      </c>
+      <c r="AE44">
         <f t="shared" si="10"/>
-        <v>466.75319858260929</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="9"/>
-        <v>657.51909490865091</v>
-      </c>
-      <c r="AC44">
+        <v>-5.1168171925346506</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="11"/>
+        <v>4.9218186745775752</v>
+      </c>
+      <c r="AG44" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH44" t="b">
         <f t="shared" si="3"/>
-        <v>405.92327317327306</v>
-      </c>
-      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AI44" t="b">
         <f t="shared" si="4"/>
-        <v>-7.0868493170453961</v>
-      </c>
-      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="b">
         <f t="shared" si="5"/>
-        <v>-5.1168171925346506</v>
-      </c>
-      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="b">
         <f t="shared" si="6"/>
-        <v>4.9218186745775752</v>
-      </c>
-      <c r="AG44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:38">
@@ -5067,52 +5067,52 @@
         <v>124</v>
       </c>
       <c r="AA45">
+        <f t="shared" si="13"/>
+        <v>10.634014121788583</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="12"/>
+        <v>10.636295894641133</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="8"/>
+        <v>10.629061637478905</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="9"/>
+        <v>-25.053188026216226</v>
+      </c>
+      <c r="AE45">
         <f t="shared" si="10"/>
-        <v>10.634014121788583</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="9"/>
-        <v>10.636295894641133</v>
-      </c>
-      <c r="AC45">
+        <v>-19.011757094439474</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="11"/>
+        <v>111.26639441590524</v>
+      </c>
+      <c r="AG45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH45" t="b">
         <f t="shared" si="3"/>
-        <v>10.629061637478905</v>
-      </c>
-      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AI45" t="b">
         <f t="shared" si="4"/>
-        <v>-25.053188026216226</v>
-      </c>
-      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AJ45" t="b">
         <f t="shared" si="5"/>
-        <v>-19.011757094439474</v>
-      </c>
-      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="b">
         <f t="shared" si="6"/>
-        <v>111.26639441590524</v>
-      </c>
-      <c r="AG45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL45" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL45" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:38">
@@ -5269,52 +5269,52 @@
         <v>3240</v>
       </c>
       <c r="AA48">
+        <f t="shared" si="13"/>
+        <v>-582.53724641544443</v>
+      </c>
+      <c r="AB48" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC48" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD48" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE48">
         <f t="shared" si="10"/>
-        <v>-582.53724641544443</v>
-      </c>
-      <c r="AB48" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC48" t="e">
+        <v>582.53724641544443</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="11"/>
+        <v>582.53724641544443</v>
+      </c>
+      <c r="AG48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD48" t="e">
+      <c r="AI48" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE48">
+      <c r="AJ48" t="e">
         <f t="shared" si="5"/>
-        <v>582.53724641544443</v>
-      </c>
-      <c r="AF48">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK48" t="b">
         <f t="shared" si="6"/>
-        <v>582.53724641544443</v>
-      </c>
-      <c r="AG48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL48" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI48" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ48" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK48" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL48" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:38">
@@ -5394,52 +5394,52 @@
         <v>37277</v>
       </c>
       <c r="AA49">
+        <f t="shared" si="13"/>
+        <v>-1105.4252799245533</v>
+      </c>
+      <c r="AB49" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC49" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD49" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE49">
         <f t="shared" si="10"/>
-        <v>-1105.4252799245533</v>
-      </c>
-      <c r="AB49" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC49" t="e">
+        <v>1105.4252799245533</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="11"/>
+        <v>1105.4252799245533</v>
+      </c>
+      <c r="AG49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH49" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" t="e">
+      <c r="AI49" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE49">
+      <c r="AJ49" t="e">
         <f t="shared" si="5"/>
-        <v>1105.4252799245533</v>
-      </c>
-      <c r="AF49">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK49" t="b">
         <f t="shared" si="6"/>
-        <v>1105.4252799245533</v>
-      </c>
-      <c r="AG49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH49" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI49" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ49" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK49" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL49" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:38">
@@ -5519,52 +5519,52 @@
         <v>880274</v>
       </c>
       <c r="AA50">
+        <f t="shared" si="13"/>
+        <v>-534.77869236828155</v>
+      </c>
+      <c r="AB50" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AE50">
         <f t="shared" si="10"/>
-        <v>-534.77869236828155</v>
-      </c>
-      <c r="AB50" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC50">
+        <v>534.74872133345457</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="11"/>
+        <v>534.77869236828155</v>
+      </c>
+      <c r="AG50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH50" t="e">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AD50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI50" t="b">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="b">
         <f t="shared" si="5"/>
-        <v>534.74872133345457</v>
-      </c>
-      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="b">
         <f t="shared" si="6"/>
-        <v>534.77869236828155</v>
-      </c>
-      <c r="AG50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL50" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH50" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI50" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AJ50" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AK50" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL50" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:38">
@@ -5721,52 +5721,52 @@
         <v>3168</v>
       </c>
       <c r="AA53">
+        <f t="shared" si="13"/>
+        <v>-805.9428059432089</v>
+      </c>
+      <c r="AB53" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC53" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD53" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE53">
         <f t="shared" si="10"/>
-        <v>-805.9428059432089</v>
-      </c>
-      <c r="AB53" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC53" t="e">
+        <v>805.9428059432089</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="11"/>
+        <v>805.9428059432089</v>
+      </c>
+      <c r="AG53" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH53" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD53" t="e">
+      <c r="AI53" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE53">
+      <c r="AJ53" t="e">
         <f t="shared" si="5"/>
-        <v>805.9428059432089</v>
-      </c>
-      <c r="AF53">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK53" t="b">
         <f t="shared" si="6"/>
-        <v>805.9428059432089</v>
-      </c>
-      <c r="AG53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH53" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI53" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ53" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK53" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL53" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:38">
@@ -5846,52 +5846,52 @@
         <v>40363</v>
       </c>
       <c r="AA54">
+        <f t="shared" si="13"/>
+        <v>-14.346084690538412</v>
+      </c>
+      <c r="AB54" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD54" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE54">
         <f t="shared" si="10"/>
-        <v>-14.346084690538412</v>
-      </c>
-      <c r="AB54" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC54" t="e">
+        <v>14.346084690538412</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="11"/>
+        <v>14.346084690538412</v>
+      </c>
+      <c r="AG54" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH54" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD54" t="e">
+      <c r="AI54" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE54">
+      <c r="AJ54" t="e">
         <f t="shared" si="5"/>
-        <v>14.346084690538412</v>
-      </c>
-      <c r="AF54">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK54" t="b">
         <f t="shared" si="6"/>
-        <v>14.346084690538412</v>
-      </c>
-      <c r="AG54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL54" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH54" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI54" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ54" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK54" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL54" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:38">
@@ -5971,52 +5971,52 @@
         <v>903803</v>
       </c>
       <c r="AA55">
+        <f t="shared" si="13"/>
+        <v>-89.478556315241718</v>
+      </c>
+      <c r="AB55" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AE55">
         <f t="shared" si="10"/>
-        <v>-89.478556315241718</v>
-      </c>
-      <c r="AB55" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC55">
+        <v>89.478462806801971</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="11"/>
+        <v>89.478556315241718</v>
+      </c>
+      <c r="AG55" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH55" t="e">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AD55">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI55" t="b">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="b">
         <f t="shared" si="5"/>
-        <v>89.478462806801971</v>
-      </c>
-      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="b">
         <f t="shared" si="6"/>
-        <v>89.478556315241718</v>
-      </c>
-      <c r="AG55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL55" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH55" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI55" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AJ55" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AK55" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL55" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:38">
@@ -6173,52 +6173,52 @@
         <v>1446</v>
       </c>
       <c r="AA58">
+        <f t="shared" si="13"/>
+        <v>-946.90658009571973</v>
+      </c>
+      <c r="AB58" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC58" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD58" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE58">
         <f t="shared" si="10"/>
-        <v>-946.90658009571973</v>
-      </c>
-      <c r="AB58" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC58" t="e">
+        <v>964.94671392480836</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="11"/>
+        <v>961.605948400903</v>
+      </c>
+      <c r="AG58" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH58" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" t="e">
+      <c r="AI58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE58">
+      <c r="AJ58" t="e">
         <f t="shared" si="5"/>
-        <v>964.94671392480836</v>
-      </c>
-      <c r="AF58">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK58" t="b">
         <f t="shared" si="6"/>
-        <v>961.605948400903</v>
-      </c>
-      <c r="AG58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL58" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH58" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI58" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ58" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK58" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL58" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:38">
@@ -6298,52 +6298,52 @@
         <v>169185</v>
       </c>
       <c r="AA59">
+        <f t="shared" si="13"/>
+        <v>-132.65008810184912</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="12"/>
+        <v>1727.8042980348475</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="8"/>
+        <v>1307.2447847860888</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="9"/>
+        <v>30.633211013886161</v>
+      </c>
+      <c r="AE59">
         <f t="shared" si="10"/>
-        <v>-132.65008810184912</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" si="9"/>
-        <v>1727.8042980348475</v>
-      </c>
-      <c r="AC59">
+        <v>136.0544216724694</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="11"/>
+        <v>136.08993153489979</v>
+      </c>
+      <c r="AG59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH59" t="b">
         <f t="shared" si="3"/>
-        <v>1307.2447847860888</v>
-      </c>
-      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AI59" t="b">
         <f t="shared" si="4"/>
-        <v>30.633211013886161</v>
-      </c>
-      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AJ59" t="b">
         <f t="shared" si="5"/>
-        <v>136.0544216724694</v>
-      </c>
-      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AK59" t="b">
         <f t="shared" si="6"/>
-        <v>136.08993153489979</v>
-      </c>
-      <c r="AG59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL59" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH59" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI59" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK59" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL59" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:38">
@@ -6423,52 +6423,52 @@
         <v>-1</v>
       </c>
       <c r="AA60">
+        <f t="shared" si="13"/>
+        <v>8.4072872082474195</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="12"/>
+        <v>8.3980322606791944</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="8"/>
+        <v>8.4061909143482758</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="9"/>
+        <v>125.45429495196267</v>
+      </c>
+      <c r="AE60">
         <f t="shared" si="10"/>
-        <v>8.4072872082474195</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="9"/>
-        <v>8.3980322606791944</v>
-      </c>
-      <c r="AC60">
+        <v>-276</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="11"/>
+        <v>-142.72559238609037</v>
+      </c>
+      <c r="AG60" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH60" t="b">
         <f t="shared" si="3"/>
-        <v>8.4061909143482758</v>
-      </c>
-      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AI60" t="b">
         <f t="shared" si="4"/>
-        <v>125.45429495196267</v>
-      </c>
-      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AJ60" t="b">
         <f t="shared" si="5"/>
-        <v>-276</v>
-      </c>
-      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AK60" t="b">
         <f t="shared" si="6"/>
-        <v>-142.72559238609037</v>
-      </c>
-      <c r="AG60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL60" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH60" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI60" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK60" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL60" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:38">
@@ -6625,52 +6625,52 @@
         <v>1445</v>
       </c>
       <c r="AA63">
+        <f t="shared" si="13"/>
+        <v>-1470.1020939603709</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="12"/>
+        <v>-11</v>
+      </c>
+      <c r="AC63" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="9"/>
+        <v>26.000000000000004</v>
+      </c>
+      <c r="AE63">
         <f t="shared" si="10"/>
-        <v>-1470.1020939603709</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="9"/>
-        <v>-11</v>
-      </c>
-      <c r="AC63" t="e">
+        <v>1473.1639561388499</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="11"/>
+        <v>1483.3900363693967</v>
+      </c>
+      <c r="AG63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH63" t="b">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AI63" t="e">
         <f t="shared" si="4"/>
-        <v>26.000000000000004</v>
-      </c>
-      <c r="AE63">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ63" t="b">
         <f t="shared" si="5"/>
-        <v>1473.1639561388499</v>
-      </c>
-      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AK63" t="b">
         <f t="shared" si="6"/>
-        <v>1483.3900363693967</v>
-      </c>
-      <c r="AG63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL63" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH63" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI63" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ63" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK63" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL63" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:38">
@@ -6750,52 +6750,52 @@
         <v>166077</v>
       </c>
       <c r="AA64">
+        <f t="shared" si="13"/>
+        <v>-1108.1927342528813</v>
+      </c>
+      <c r="AB64" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC64" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD64" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE64">
         <f t="shared" si="10"/>
-        <v>-1108.1927342528813</v>
-      </c>
-      <c r="AB64" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC64" t="e">
+        <v>1108.3999880491494</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="11"/>
+        <v>1107.9654236376193</v>
+      </c>
+      <c r="AG64" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD64" t="e">
+      <c r="AI64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE64">
+      <c r="AJ64" t="e">
         <f t="shared" si="5"/>
-        <v>1108.3999880491494</v>
-      </c>
-      <c r="AF64">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK64" t="b">
         <f t="shared" si="6"/>
-        <v>1107.9654236376193</v>
-      </c>
-      <c r="AG64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL64" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH64" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI64" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ64" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK64" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL64" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:38">
@@ -6875,52 +6875,52 @@
         <v>-1</v>
       </c>
       <c r="AA65">
+        <f t="shared" si="13"/>
+        <v>37.595839093282748</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="12"/>
+        <v>-36.544838176252419</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="8"/>
+        <v>29.677311061148124</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="9"/>
+        <v>1240.5766190873042</v>
+      </c>
+      <c r="AE65">
         <f t="shared" si="10"/>
-        <v>37.595839093282748</v>
-      </c>
-      <c r="AB65">
-        <f t="shared" si="9"/>
-        <v>-36.544838176252419</v>
-      </c>
-      <c r="AC65">
+        <v>-297.19450100661595</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="11"/>
+        <v>-1868.2023033263415</v>
+      </c>
+      <c r="AG65" t="b">
+        <f t="shared" ref="AG19:AG65" si="14">NOT(AND((AA65&lt;=-_xlfn.T.INV(0.01, 4)),(AA65&gt;=_xlfn.T.INV(0.01, 4))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH65" t="b">
         <f t="shared" si="3"/>
-        <v>29.677311061148124</v>
-      </c>
-      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AI65" t="b">
         <f t="shared" si="4"/>
-        <v>1240.5766190873042</v>
-      </c>
-      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AJ65" t="b">
         <f t="shared" si="5"/>
-        <v>-297.19450100661595</v>
-      </c>
-      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AK65" t="b">
         <f t="shared" si="6"/>
-        <v>-1868.2023033263415</v>
-      </c>
-      <c r="AG65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL65" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH65" t="b">
-        <f>AND((AB65&lt;=-_xlfn.T.INV(0.01, 4)),(AB65&gt;=_xlfn.T.INV(0.01, 4)))</f>
-        <v>0</v>
-      </c>
-      <c r="AI65" t="b">
-        <f t="shared" ref="AI65:AL65" si="11">AND((AC65&lt;=-_xlfn.T.INV(0.01, 4)),(AC65&gt;=_xlfn.T.INV(0.01, 4)))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK65" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL65" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
